--- a/Oil & Gas.xlsx
+++ b/Oil & Gas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF3561-6088-4AA6-82B3-B3BA3862AD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B103355A-1B2B-4B4D-83E5-89B87F03BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
   <si>
     <t>Unit</t>
   </si>
@@ -209,12 +210,27 @@
   <si>
     <t>Metric</t>
   </si>
+  <si>
+    <t>The oil and gas sector is responsible for approximately 15% of global energy-related CO₂ emissions, including both operational emissions and those from energy use across upstream, midstream, and downstream activities. While initiatives such as electrification of operations, methane leak reduction, and flaring minimization have begun to lower emissions, progress is uneven. Current reductions are far below the annual 6% cut required to align with a Net Zero by 2050 scenario. Without rapid scaling of clean technologies, carbon capture, and fuel switching, the sector risks locking in emissions and stranded assets.</t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>GHG Intensity, kgCO2-eq/boe</t>
+  </si>
+  <si>
+    <t>Methane intensity, kgCO2eq/boe</t>
+  </si>
+  <si>
+    <t>GHG emissions reductions from Oil and gas Upstream and downstream</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,8 +265,18 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +295,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,11 +325,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,6 +364,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +611,7 @@
   </sheetPr>
   <dimension ref="A1:X767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -21055,4 +21134,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1421C-055E-4B1C-980F-69F3DF25162A}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="74.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2050</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="17">
+        <v>14.75</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="17">
+        <v>7.16</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="20">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oil & Gas.xlsx
+++ b/Oil & Gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B103355A-1B2B-4B4D-83E5-89B87F03BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4158C0E-1335-4670-B3C5-D746A569D75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>IEA NZE</t>
   </si>
   <si>
     <t>Gt CO2-eq</t>
@@ -225,6 +222,9 @@
   <si>
     <t>GHG emissions reductions from Oil and gas Upstream and downstream</t>
   </si>
+  <si>
+    <t>SBTi pathway (IEA NZE)</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,9 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,18 +375,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:X767"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -627,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -670,13 +667,13 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="7">
         <v>1.1200000000000001</v>
@@ -716,13 +713,13 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="7">
         <v>0.53</v>
@@ -762,13 +759,13 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="7">
         <v>2.0699999999999998</v>
@@ -808,13 +805,13 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="7">
         <v>1.33</v>
@@ -854,13 +851,13 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>5.0529999999999999</v>
@@ -900,13 +897,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
         <v>88.4</v>
@@ -946,13 +943,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
         <v>65.2</v>
@@ -984,13 +981,13 @@
     </row>
     <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
         <v>44.2</v>
@@ -1030,13 +1027,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
         <v>21</v>
@@ -1076,13 +1073,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
         <v>103.4</v>
@@ -1122,13 +1119,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
         <v>63</v>
@@ -1168,13 +1165,13 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
         <v>40.5</v>
@@ -1214,13 +1211,13 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1260,13 +1257,13 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1306,13 +1303,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -1352,13 +1349,13 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -1398,13 +1395,13 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
         <v>92</v>
@@ -1444,13 +1441,13 @@
     </row>
     <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D19" s="7">
         <v>2.5299999999999998</v>
@@ -1490,13 +1487,13 @@
     </row>
     <row r="20" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
         <v>0.08</v>
@@ -1536,13 +1533,13 @@
     </row>
     <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="7">
         <v>58242</v>
@@ -1582,13 +1579,13 @@
     </row>
     <row r="22" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
         <v>32876</v>
@@ -1628,13 +1625,13 @@
     </row>
     <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="7">
         <v>7.6</v>
@@ -1674,13 +1671,13 @@
     </row>
     <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D24" s="7">
         <v>7.16</v>
@@ -1720,13 +1717,13 @@
     </row>
     <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
         <v>14.75</v>
@@ -1766,13 +1763,13 @@
     </row>
     <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D26" s="7">
         <v>249.7</v>
@@ -1812,13 +1809,13 @@
     </row>
     <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
         <v>235.3</v>
@@ -1858,13 +1855,13 @@
     </row>
     <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="8">
         <v>485</v>
@@ -1904,13 +1901,13 @@
     </row>
     <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
         <v>14.75</v>
@@ -1950,13 +1947,13 @@
     </row>
     <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
         <v>7.6</v>
@@ -1996,13 +1993,13 @@
     </row>
     <row r="31" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
         <v>7.16</v>
@@ -2042,13 +2039,13 @@
     </row>
     <row r="32" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7">
         <v>4.43</v>
@@ -2088,13 +2085,13 @@
     </row>
     <row r="33" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="7">
         <v>2.2799999999999998</v>
@@ -2134,13 +2131,13 @@
     </row>
     <row r="34" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
         <v>2.15</v>
@@ -2180,13 +2177,13 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7">
         <v>2.6</v>
@@ -2226,13 +2223,13 @@
     </row>
     <row r="36" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
         <v>1.34</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="37" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="7">
         <v>1.26</v>
@@ -2318,13 +2315,13 @@
     </row>
     <row r="38" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7">
         <v>0.78</v>
@@ -2364,13 +2361,13 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7">
         <v>0.4</v>
@@ -2410,13 +2407,13 @@
     </row>
     <row r="40" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="7">
         <v>0.38</v>
@@ -2456,13 +2453,13 @@
     </row>
     <row r="41" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D41" s="7">
         <v>485</v>
@@ -2502,13 +2499,13 @@
     </row>
     <row r="42" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D42" s="7">
         <v>249.7</v>
@@ -2548,13 +2545,13 @@
     </row>
     <row r="43" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="7">
         <v>235.3</v>
@@ -2594,13 +2591,13 @@
     </row>
     <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="7">
         <v>145.5</v>
@@ -2640,13 +2637,13 @@
     </row>
     <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="7">
         <v>74.91</v>
@@ -2686,13 +2683,13 @@
     </row>
     <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="7">
         <v>70.59</v>
@@ -2732,13 +2729,13 @@
     </row>
     <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D47" s="7">
         <v>0.49</v>
@@ -2778,13 +2775,13 @@
     </row>
     <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="7">
         <v>2.6</v>
@@ -2824,13 +2821,13 @@
     </row>
     <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D49" s="7">
         <v>186.74</v>
@@ -21140,7 +21137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1421C-055E-4B1C-980F-69F3DF25162A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -21150,203 +21147,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2040</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2050</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2030</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2040</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2050</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B5" s="15">
+        <v>14.75</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7.16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="18">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.98</v>
       </c>
-      <c r="D4" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="17">
-        <v>14.75</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.94</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="17">
-        <v>7.16</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="20">
-        <v>0.63590000000000002</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
